--- a/data/trans_dic/P78C6_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P78C6_2023-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>96,92%</t>
+          <t>97,63%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>34,16%</t>
+          <t>24,31%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>67,08%</t>
+          <t>61,78%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>70,65; 100,0</t>
+          <t>76,97; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,72; 100,0</t>
+          <t>1,07; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,42; 98,34</t>
+          <t>15,21; 98,77</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>82,3%</t>
+          <t>82,25%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>88,17%</t>
+          <t>88,19%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>85,42%</t>
+          <t>85,3%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>55,84; 95,67</t>
+          <t>55,46; 95,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>74,73; 96,91</t>
+          <t>74,56; 96,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>69,81; 93,77</t>
+          <t>68,51; 93,74</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>46,07%</t>
+          <t>45,25%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>62,44%</t>
+          <t>62,29%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>57,27%</t>
+          <t>56,76%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,5; 80,34</t>
+          <t>15,92; 79,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>38,24; 83,2</t>
+          <t>37,92; 83,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36,68; 74,16</t>
+          <t>35,85; 73,78</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>68,71%</t>
+          <t>70,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>52,15%</t>
+          <t>52,2%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>58,52%</t>
+          <t>59,43%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>38,15; 90,84</t>
+          <t>39,92; 92,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,54; 72,64</t>
+          <t>30,25; 73,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>39,11; 75,9</t>
+          <t>39,94; 76,87</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>52,57%</t>
+          <t>52,46%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>70,17%</t>
+          <t>71,29%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>62,1%</t>
+          <t>62,83%</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,11; 100,0</t>
+          <t>16,3; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>18,09; 100,0</t>
+          <t>19,6; 100,0</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>71,85%</t>
+          <t>71,52%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>34,77%</t>
+          <t>35,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>50,14%</t>
+          <t>50,78%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>35,95; 92,17</t>
+          <t>36,13; 92,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,71; 61,62</t>
+          <t>13,94; 61,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>30,16; 70,79</t>
+          <t>30,65; 71,28</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>68,52%</t>
+          <t>69,26%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>68,38%</t>
+          <t>68,64%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>68,42%</t>
+          <t>68,81%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>39,8; 90,57</t>
+          <t>39,63; 90,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>49,09; 83,61</t>
+          <t>49,5; 83,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>52,79; 80,69</t>
+          <t>53,19; 80,97</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>94,66%</t>
+          <t>94,64%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>96,84%</t>
+          <t>96,85%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>95,81%</t>
+          <t>95,79%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>90,56; 97,6</t>
+          <t>90,5; 97,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>93,8; 98,58</t>
+          <t>93,79; 98,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>93,33; 97,43</t>
+          <t>93,31; 97,43</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>88,44%</t>
+          <t>87,91%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>84,66%</t>
+          <t>83,21%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>86,33%</t>
+          <t>85,31%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>83,66; 91,69</t>
+          <t>82,76; 91,21</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>79,5; 88,58</t>
+          <t>77,08; 87,54</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>83,23; 88,97</t>
+          <t>81,78; 88,22</t>
         </is>
       </c>
     </row>
